--- a/biology/Botanique/Sansevieria_erythraeae/Sansevieria_erythraeae.xlsx
+++ b/biology/Botanique/Sansevieria_erythraeae/Sansevieria_erythraeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria erythraeae, également appelée Dracaena erythraeae[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria erythraeae, également appelée Dracaena erythraeae, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria pinguicula est une espèce de sansevières à moyennes feuilles érectiles (40 à 50 cm de longueur), cylindriques, avec un canal sur la face supérieure et cinq sillons sur la face externe, lisses, se terminant en pointe, de couleur vert-clair à vert-foncé avec de discrètes striures plus claires[2]. Elles poussent en groupes denses, directement depuis le rhyzome par six à huit feuilles arrangées de manière irrégulière. Les inflorescences mesurent la taille des feuilles avec des groupes de trois à cinq fleurs blanches[2].
-Elle a été identifiée comme espèce à part entière en 1918 par le botaniste italien Giovanni Ettore Mattei (it)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria pinguicula est une espèce de sansevières à moyennes feuilles érectiles (40 à 50 cm de longueur), cylindriques, avec un canal sur la face supérieure et cinq sillons sur la face externe, lisses, se terminant en pointe, de couleur vert-clair à vert-foncé avec de discrètes striures plus claires. Elles poussent en groupes denses, directement depuis le rhyzome par six à huit feuilles arrangées de manière irrégulière. Les inflorescences mesurent la taille des feuilles avec des groupes de trois à cinq fleurs blanches.
+Elle a été identifiée comme espèce à part entière en 1918 par le botaniste italien Giovanni Ettore Mattei (it).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de la Corne de l'Afrique, présente en Érythrée – qui lui donne son nom –, Éthiopie et possiblement au Soudan[4],[2]. Elle pousse sur les berges des rivières des zones semi-arides entre 1 200 et 2 100 m d'altitude, dans l'une des régions les plus arides du Kenya[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de la Corne de l'Afrique, présente en Érythrée – qui lui donne son nom –, Éthiopie et possiblement au Soudan,. Elle pousse sur les berges des rivières des zones semi-arides entre 1 200 et 2 100 m d'altitude, dans l'une des régions les plus arides du Kenya.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des synonymes[5],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des synonymes, :
 Sansevieria schweinfurthii (Täckh. &amp; Drar, 1954) – invalidé
 Dracaena erythraeae (Mattei, 1964 ; Byng &amp; Christenh., 2018)</t>
         </is>
